--- a/Game/GamePlan/世界地图设计/城市村庄列表.xlsx
+++ b/Game/GamePlan/世界地图设计/城市村庄列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>背景故事</t>
   </si>
   <si>
-    <t>天武城</t>
+    <t>天武皇城</t>
   </si>
   <si>
     <t>位于东部中央平原</t>
@@ -367,7 +367,7 @@
     <t>榆木符可加固商队货车，防止妖兽袭击，榆木镇是东部商道上的重要补给站。</t>
   </si>
   <si>
-    <t>灵凤城</t>
+    <t>灵凤皇城</t>
   </si>
   <si>
     <t>南部雨林边缘</t>
@@ -2198,7 +2198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2206,9 +2206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,8 +2529,8 @@
   <sheetPr/>
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2581,14 +2578,13 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2847,7 +2843,6 @@
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
@@ -3073,17 +3068,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:5">
-      <c r="A33" s="3" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D33" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3552,7 +3547,6 @@
       <c r="B62" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
         <v>224</v>
       </c>
@@ -3972,7 +3966,6 @@
       <c r="B87" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
         <v>320</v>
       </c>
@@ -3980,17 +3973,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" spans="1:5">
-      <c r="A88" s="3" t="s">
+    <row r="88" s="1" customFormat="1" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D88" t="s">
         <v>320</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="1" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4403,7 +4396,6 @@
       <c r="B113" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
         <v>415</v>
       </c>
@@ -4411,14 +4403,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="114" s="3" customFormat="1" spans="1:5">
-      <c r="A114" s="3" t="s">
+    <row r="114" s="1" customFormat="1" spans="1:5">
+      <c r="A114" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="1" t="s">
         <v>423</v>
       </c>
     </row>
